--- a/Excel/dtmf_tones.xlsx
+++ b/Excel/dtmf_tones.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -70,12 +70,6 @@
     <t>Tone/silence ratio</t>
   </si>
   <si>
-    <t>Use the slider to select the ratio between the length of each tone in the series and the length of the silences between them. This ratio is displayed underneath the slider as the "duty cycle" along with the resulting duration of each tone and silence. Changing the DTMF Duration</t>
-  </si>
-  <si>
-    <t>changes the duration of each tone and silence while retaining the ratio between them.</t>
-  </si>
-  <si>
     <t>For example, if you generate four tones in a sequence lasting four seconds, choosing a duty cycle of 50% in order to make the tones and silences of equal duration, the four tones and the three silences between them will all be 571 milliseconds long.</t>
   </si>
   <si>
@@ -106,69 +100,30 @@
     <t>Links</t>
   </si>
   <si>
-    <t>|&lt; Index of Effects, Generators and Analyzers</t>
-  </si>
-  <si>
     <t>|&lt; Generate Menu</t>
   </si>
   <si>
-    <t>डीटीएमएफ टोन - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
     <t>डीटीएमएफ टोन</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
     <t>डीटीएमएफ टोन टेलिफोनवर कीपॅडद्वारे तयार केल्याप्रमाणे ड्युअल-टोन मल्टी-फ्रिक्वेन्सी (डीटीएमएफ) टोन निर्माण करते.</t>
   </si>
   <si>
-    <t>यावर प्रवेश केलेले: व्युत्पन्न&gt; डीटीएमएफ टोन ...</t>
-  </si>
-  <si>
-    <t>उपरोक्त प्रतिमा व्युत्पन्न केलेल्या ऑडिओसह निवड प्रदेशाच्या जागी प्रतिबिंबित करते.</t>
-  </si>
-  <si>
     <t>डीटीएमएफ क्रम</t>
   </si>
   <si>
-    <t>आपण व्युत्पन्न करू इच्छित असलेल्या प्रत्येक टोनसाठी 0 ते 9 पर्यंत क्रमांक, ए टू झेड पासून लोअर केस अक्षरे आणि * आणि # वर्ण प्रविष्ट करा. आपण यूएस सैन्याद्वारे वापरलेले चार "प्राधान्य" टोन देखील प्रविष्ट करू शकता (अप्पर केस ए, बी, सी आणि डी)</t>
-  </si>
-  <si>
     <t>मोठेपणा</t>
   </si>
   <si>
-    <t>आपणास व्युत्पन्न केलेल्या ऑडिओच्या मोठ्यातेसाठी मोठेपणाचे मूल्य टाइप करू देते. परवानगी दिलेली मूल्ये ० (मौन) आणि १ (क्लीपिंगशिवाय जास्तीत जास्त संभाव्य खंड) दरम्यान आहेत, ०.8 च्या डीफॉल्टसह.</t>
-  </si>
-  <si>
     <t>कालावधी</t>
   </si>
   <si>
     <t>आवश्यक कालावधी प्रविष्ट करण्यासाठी टाइप करा (किंवा कीबोर्ड बाण वापरा). आपल्याला पाहिजे असलेला पहिला अंक हायलाइट केल्यास, संपूर्ण क्रमांक टाइप करा. आवश्यक असलेला पहिला अंक हायलाइट न केल्यास, प्रथम कीड वर जाण्यासाठी कीबोर्ड वरील डावा किंवा उजवा बाण वापरा, नंतर टाइप करा. आपण टाइप करण्याऐवजी कीबोर्ड अप किंवा डाउन एरोसह हायलाइट केलेला अंक वाढवू शकता.</t>
   </si>
   <si>
-    <t>कर्सर तयार करताना, कालावधी 30.000 सेकंदात आरंभ होते (डीटीएमएफ जनरेटर सोडून जे डीफॉल्ट 1.000 सेकंदात असते). तथापि, आपला अंतिम प्रविष्ट केलेला कालावधी नेहमीच लक्षात राहतो.</t>
-  </si>
-  <si>
-    <t>निवड प्रदेश पुनर्स्थित करताना, कालावधी नेहमीच त्या निवडीचा अचूक कालावधी जवळच्या ऑडिओ नमुना दाखवते.</t>
-  </si>
-  <si>
     <t>टोन / मौन प्रमाण</t>
   </si>
   <si>
-    <t>मालिकेतील प्रत्येक टोनची लांबी आणि त्यातील शांततेची लांबी यातील फरक निवडण्यासाठी स्लायडर वापरा. स्लाइडरच्या खाली हे गुण प्रत्येक टोन आणि गप्पांच्या परिणामी कालावधीसह "कर्तव्य चक्र" म्हणून प्रदर्शित केले जातात. डीटीएमएफ कालावधी बदलत आहे</t>
-  </si>
-  <si>
-    <t>प्रत्येक टोन आणि गप्पांचा कालावधी बदलतो जेव्हा त्यांच्यातील गुणोत्तर टिकवून ठेवतात.</t>
-  </si>
-  <si>
-    <t>उदाहरणार्थ, जर आपण चार सेकंद टिकणार्‍या एका क्रमात चार टोन व्युत्पन्न केले तर समान कालावधीचे टोन आणि शांतता तयार करण्यासाठी 50% चे कर्तव्य चक्र निवडल्यास, चार टोन आणि त्या दरम्यानचे तीन मौन 571 मिलिसेकंद लांबीचे असेल.</t>
-  </si>
-  <si>
     <t>कमांड बटणे</t>
   </si>
   <si>
@@ -178,28 +133,73 @@
     <t>व्यवस्थापित करा ड्रॉपडाउन मेनू आपल्याला साधनाचे प्रीसेट सेट करण्यास आणि टूलबद्दल काही तपशील पाहण्यास सक्षम करते. तपशीलांसाठी प्रीसेट्स व्यवस्थापित करा पहा</t>
   </si>
   <si>
-    <t>पूर्वावलोकन ऑडिओमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान सेटिंग्जसह लागू केल्यास ऑडिओला काय वाटेल हे एक लहान पूर्वावलोकन प्ले करते.</t>
-  </si>
-  <si>
-    <t>पूर्वावलोकनाची लांबी संपादन&gt; प्राधान्ये&gt; प्लेबॅक मधील आपल्या सेटिंगद्वारे निश्चित केली जाते, डीफॉल्ट सेटिंग 6 सेकंद असते.</t>
-  </si>
-  <si>
-    <t>ठीक आहे सध्याच्या प्रभाव सेटिंग्जसह निवडलेल्या ऑडिओवर प्रभाव लागू करते आणि संवाद बंद करते</t>
-  </si>
-  <si>
-    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ऑडिओमध्ये कोणताही बदल होत नाही</t>
-  </si>
-  <si>
-    <t>या पृष्ठावरील मॅन्युअलमध्ये आपल्याला योग्य पृष्ठावर आणते</t>
-  </si>
-  <si>
     <t>दुवे</t>
   </si>
   <si>
-    <t>| &lt;प्रभाव, जनरेटर आणि विश्लेषकांचे अनुक्रमणिका</t>
-  </si>
-  <si>
     <t>| &lt;मेनू व्युत्पन्न करा</t>
+  </si>
+  <si>
+    <t>डीटीएमएफ टोन - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>द्वारे प्रवेश केलेले: व्युत्पन्न&gt; डीटीएमएफ टोन ...</t>
+  </si>
+  <si>
+    <t>उपरोक्त प्रतिमा व्युत्पन्न केलेल्या ध्वनीसह निवड प्रदेशाच्या जागी प्रतिबिंबित करते.</t>
+  </si>
+  <si>
+    <t>आपण उत्त्पन्न करू इच्छित असलेल्या प्रत्येक टोनसाठी 0 ते 9 पर्यंत क्रमांक, ए टू झेड पासून लोअर केस अक्षरे आणि * आणि # वर्ण प्रविष्ट करा. आपण यूएस सैन्याद्वारे वापरलेले चार "प्राधान्य" टोन देखील प्रविष्ट करू शकता (अप्पर केस ए, बी, सी आणि डी)</t>
+  </si>
+  <si>
+    <t>आपणास व्युत्पन्न केलेल्या ध्वनीच्या मोठ्यातेसाठी मोठेपणाचे मूल्य टाइप करू देते. परवानगी दिलेली मूल्ये ० (मौन) आणि १ (क्लीपिंगशिवाय जास्तीत जास्त संभाव्य खंड) दरम्यान आहेत, ०.८ च्या डीफॉल्टसह.</t>
+  </si>
+  <si>
+    <t>कर्सर तयार करताना, कालावधी ३०.००० सेकंदात आरंभ होते (डीटीएमएफ जनरेटर सोडून जे डीफॉल्ट १.००० सेकंदात असते). तथापि, आपला अंतिम प्रविष्ट केलेला कालावधी नेहमीच लक्षात राहतो.</t>
+  </si>
+  <si>
+    <t>निवड प्रदेश पुनर्स्थित करताना, कालावधी नेहमीच त्या निवडीचा अचूक कालावधी जवळच्या ध्वनीचा नमुना दाखवते.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the slider to select the ratio between the length of each tone in the series and the length of the silences between them. This ratio is displayed underneath the slider as the "duty cycle" along with the resulting duration of each tone and silence. </t>
+  </si>
+  <si>
+    <t>Changing the DTMF Duration changes the duration of each tone and silence while retaining the ratio between them.</t>
+  </si>
+  <si>
+    <t>मालिकेतील प्रत्येक टोनची लांबी आणि त्यातील शांततेची लांबी यातील फरक निवडण्यासाठी स्लायडर वापरा. स्लाइडरच्या खाली हे गुण प्रत्येक टोन आणि गप्पांच्या परिणामी कालावधीसह "कर्तव्य चक्र" म्हणून प्रदर्शित केले जातात.</t>
+  </si>
+  <si>
+    <t>डीटीएमएफ कालावधी बदलणे प्रत्येक टोन आणि गप्पांचा कालावधी बदलते दरम्यान गुणोत्तर कायम ठेवत.</t>
+  </si>
+  <si>
+    <t>उदाहरणार्थ, जर आपण चार सेकंद टिकणार्‍या एका क्रमात चार टोन व्युत्पन्न केले तर समान कालावधीचे टोन आणि शांतता तयार करण्यासाठी ५०% चे कर्तव्य चक्र निवडल्यास, चार टोन आणि त्या दरम्यानचे तीन मौन ५७१ मिलिसेकंद लांबीचे असेल.</t>
+  </si>
+  <si>
+    <t>पूर्वावलोकन ध्वनीमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान सेटिंग्जसह लागू केल्यास ध्वनीला काय वाटेल हे एक लहान पूर्वावलोकन प्ले करते.</t>
+  </si>
+  <si>
+    <t>पूर्वावलोकनाची लांबी संपादन&gt; प्राधान्ये&gt; प्लेबॅक मधील आपल्या सेटिंगद्वारे निश्चित केली जाते, डीफॉल्ट सेटिंग ६ सेकंद असते.</t>
+  </si>
+  <si>
+    <t>ठीक आहे सध्याच्या प्रभाव सेटिंग्जसह निवडलेल्या ध्वनीवर प्रभाव लागू करते आणि संवाद बंद करते</t>
+  </si>
+  <si>
+    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ध्वनीमध्ये कोणताही बदल होत नाही</t>
+  </si>
+  <si>
+    <t>या पृष्ठावरील माहितीपुस्तिकामध्ये आपल्याला योग्य पृष्ठावर आणते</t>
+  </si>
+  <si>
+    <t>Index of Effects, Generators and Analyzers</t>
+  </si>
+  <si>
+    <t>प्रभाव, जनरेटर आणि विश्लेषकांची अनुक्रमणिका</t>
   </si>
 </sst>
 </file>
@@ -559,9 +559,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="63.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -579,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -590,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -601,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -612,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -623,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -634,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -645,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -656,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -667,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -678,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -689,7 +695,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -700,7 +706,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -711,7 +717,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -722,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -733,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -744,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -752,10 +758,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -763,10 +769,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -774,10 +780,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -785,10 +791,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -796,10 +802,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -807,10 +813,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -818,10 +824,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -829,10 +835,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -840,10 +846,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -851,10 +857,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -862,10 +868,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -873,10 +879,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -884,10 +890,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -895,13 +901,14 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>